--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/新成本信息表模板.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/新成本信息表模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86159\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\C#\ABP\dev\1104\aspnet-core\src\Finance.Web.Host\bin\Debug\net6.0\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
   <si>
     <t xml:space="preserve"> 成 本 信 息 表</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{{NRE.Cost}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{{Sop.Year}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -159,10 +155,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{{NRE.CostName}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>走量(pcs)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -175,10 +167,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{{NRE.NreName}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>SOP 5年走量信息：</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -203,15 +191,203 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{{Cost.Name}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Cost.pcs}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Cost.Costs}}</t>
+    <t>NRE费用信息：</t>
+  </si>
+  <si>
+    <t>手板件费</t>
+  </si>
+  <si>
+    <t>模具费</t>
+  </si>
+  <si>
+    <t>生产设备费</t>
+  </si>
+  <si>
+    <t>工装费</t>
+  </si>
+  <si>
+    <t>治具费</t>
+  </si>
+  <si>
+    <t>检具费</t>
+  </si>
+  <si>
+    <t>实验费</t>
+  </si>
+  <si>
+    <t>测试软件费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>差旅费</t>
+  </si>
+  <si>
+    <t>其他费用</t>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{NRE.shouban}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{NRE.moju}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{NRE.scsb}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{NRE.gz}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{NRE.yj}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{NRE.jianju}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{NRE.sy}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{NRE.csrj}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{NRE.cl}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{NRE.qt}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{NRE.SolutionName}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本单价信息</t>
+  </si>
+  <si>
+    <t>{{PriceCost.SolutionName}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP年成本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全生命周期成本</t>
+  </si>
+  <si>
+    <t>BOM成本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产成本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>良损率、良损成本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>运费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOQ分摊成本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量成本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分摊成本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总成本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.Gradient}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.BomSop}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.Bomfull}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.ScSop}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.Scfull}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.LsSop}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.Lsfull}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.YfSop}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.Yffull}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.MoqSop}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.Moqfull}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.QuSop}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.Qufull}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.FtSop}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.Ftfull}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.AllSop}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.Allfull}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -308,12 +484,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="25">
@@ -613,7 +795,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,12 +920,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -754,6 +930,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -836,6 +1018,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1189,8 +1395,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>346075</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>113030</xdr:rowOff>
     </xdr:to>
@@ -1527,25 +1733,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K39"/>
+  <dimension ref="B1:T40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:F28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="2" width="31.375" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="20.375" customWidth="1"/>
-    <col min="7" max="7" width="21.125" customWidth="1"/>
-    <col min="8" max="8" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="14.75" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="13.5" customHeight="1">
@@ -1753,7 +1959,7 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
@@ -1765,12 +1971,12 @@
       <c r="J16" s="37"/>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:20">
       <c r="B17" s="77" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="58"/>
       <c r="E17" s="61" t="s">
@@ -1783,11 +1989,11 @@
         <v>12</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:20">
       <c r="B18" s="78"/>
       <c r="C18" s="59"/>
       <c r="D18" s="60"/>
@@ -1798,29 +2004,29 @@
       <c r="I18" s="9"/>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:20">
       <c r="B19" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="64" t="s">
         <v>31</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>32</v>
       </c>
       <c r="D19" s="69"/>
       <c r="E19" s="42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="2:11" ht="12.75" customHeight="1">
+    <row r="20" spans="2:20" ht="12.75" customHeight="1">
       <c r="B20" s="11"/>
       <c r="C20" s="9"/>
       <c r="D20" s="34"/>
@@ -1831,7 +2037,7 @@
       <c r="I20" s="20"/>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:20">
       <c r="B21" s="19"/>
       <c r="C21" s="68"/>
       <c r="D21" s="68"/>
@@ -1839,7 +2045,7 @@
       <c r="H21" s="9"/>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:20">
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -1847,39 +2053,39 @@
       <c r="H22" s="9"/>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:20">
       <c r="B23" s="4"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:20">
       <c r="B24" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24" s="63" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="63"/>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="48" t="s">
-        <v>33</v>
+      <c r="F24" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="G24" s="63" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H24" s="63"/>
       <c r="I24" s="53"/>
       <c r="J24" s="54"/>
       <c r="K24" s="55"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:20">
       <c r="D25" s="9"/>
       <c r="F25" s="24"/>
       <c r="G25" s="25"/>
@@ -1887,128 +2093,314 @@
       <c r="I25" s="26"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:20">
       <c r="B26" s="4"/>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="11"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="55"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="8"/>
-    </row>
-    <row r="29" spans="2:11">
+    <row r="27" spans="2:20">
+      <c r="B27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="C28" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="L28" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="M28" s="52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20">
       <c r="B29" s="4"/>
-      <c r="K29" s="8"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="11"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="45"/>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" s="84"/>
+      <c r="L30" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="O30" s="82"/>
+      <c r="P30" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="S30" s="82"/>
+      <c r="T30" s="86"/>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="L31" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="M31" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="N31" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="O31" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="P31" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q31" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="R31" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="S31" s="83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="I32" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="L32" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="M32" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="N32" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="O32" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="P32" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q32" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="R32" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="S32" s="52" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="27"/>
-      <c r="D33" s="9"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="K33" s="8"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="4"/>
-      <c r="C34" s="14"/>
+      <c r="B34" s="27"/>
       <c r="D34" s="9"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
       <c r="K34" s="8"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="9"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
       <c r="K35" s="8"/>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="4"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
+      <c r="B36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="2:11" ht="14.25" thickBot="1">
+    <row r="37" spans="2:11">
       <c r="B37" s="4"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="12"/>
-    </row>
-    <row r="38" spans="2:11" ht="15" thickTop="1" thickBot="1">
-      <c r="B38" s="6"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="2:11" ht="14.25" thickTop="1">
-      <c r="B39" s="3"/>
-      <c r="I39" s="10"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="2:11" ht="14.25" thickBot="1">
+      <c r="B38" s="4"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="2:11" ht="15" thickTop="1" thickBot="1">
+      <c r="B39" s="6"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="2:11" ht="14.25" thickTop="1">
+      <c r="B40" s="3"/>
+      <c r="I40" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="33">
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="C21:E21"/>
@@ -2024,9 +2416,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H27:I27"/>
     <mergeCell ref="C17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>

--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/新成本信息表模板.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/新成本信息表模板.xlsx
@@ -5,93 +5,270 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\C#\ABP\dev\1104\aspnet-core\src\Finance.Web.Host\bin\Debug\net6.0\wwwroot\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86159\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="1440" windowWidth="23205" windowHeight="13620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="成本信息表模板" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">成本信息表模板!$A$1:$K$26</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
-  <si>
-    <t xml:space="preserve"> 成 本 信 息 表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="129">
+  <si>
+    <t>密级：</t>
+  </si>
+  <si>
+    <t>年份</t>
+  </si>
+  <si>
+    <t>NRE费用信息：</t>
+  </si>
+  <si>
+    <t>手板件费</t>
+  </si>
+  <si>
+    <t>模具费</t>
+  </si>
+  <si>
+    <t>生产设备费</t>
+  </si>
+  <si>
+    <t>工装费</t>
+  </si>
+  <si>
+    <t>治具费</t>
+  </si>
+  <si>
+    <t>检具费</t>
+  </si>
+  <si>
+    <t>实验费</t>
+  </si>
+  <si>
+    <t>差旅费</t>
+  </si>
+  <si>
+    <t>其他费用</t>
+  </si>
+  <si>
+    <t>成本单价信息</t>
+  </si>
+  <si>
+    <t>全生命周期成本</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>日期：</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>记录编号：</t>
+  </si>
+  <si>
+    <t>BJHJ-ZL20231023-001</t>
+  </si>
+  <si>
+    <t>版本:2</t>
+  </si>
+  <si>
+    <t>成 本 信 息 表</t>
+  </si>
+  <si>
+    <t>直接客户名称：瑶瑶</t>
+  </si>
+  <si>
+    <t>终端客户名称：YY</t>
+  </si>
+  <si>
+    <t>报价形式：</t>
+  </si>
+  <si>
+    <t>PriceEvalType_Quantity</t>
   </si>
   <si>
     <t>SOP时间：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目生命周期：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售类型：</t>
+  </si>
+  <si>
+    <t>SalesType_ForExport</t>
+  </si>
+  <si>
+    <t>贸易方式：</t>
+  </si>
+  <si>
+    <t>TradeMethodDDP</t>
+  </si>
+  <si>
+    <t>汇率：</t>
   </si>
   <si>
     <t>付款方式：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售类型：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贸易方式：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇率：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>密级：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-         </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>报价形式：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP 5年走量信息：</t>
+  </si>
+  <si>
+    <t>走量(pcs)</t>
   </si>
   <si>
     <t>年降率（%）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>年度返利要求（%）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>一次性折让率（%）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 日期：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录编号：</t>
+  </si>
+  <si>
+    <t>年度佣金比例(%)</t>
+  </si>
+  <si>
+    <t>2031上半年</t>
+  </si>
+  <si>
+    <t>2031下半年</t>
+  </si>
+  <si>
+    <t>2032上半年</t>
+  </si>
+  <si>
+    <t>2032下半年</t>
+  </si>
+  <si>
+    <t>核心部件: 延锋科技前装车内1M</t>
+  </si>
+  <si>
+    <t>核心部件</t>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>串行芯片</t>
+  </si>
+  <si>
+    <t>EEPROM_BR24H128NUX-5ACTR_ROHM</t>
+  </si>
+  <si>
+    <t>我司推荐</t>
+  </si>
+  <si>
+    <t>Sensor芯片</t>
+  </si>
+  <si>
+    <t>客户供应</t>
+  </si>
+  <si>
+    <t>CFS1001A-602-00_SENSOR板</t>
+  </si>
+  <si>
+    <t>镜头</t>
+  </si>
+  <si>
+    <t>SF817T-400_自动驾驶前视镜头</t>
+  </si>
+  <si>
+    <t>核心部件: 延锋科技-DMS-2M</t>
+  </si>
+  <si>
+    <t>电平转换芯片_74AVC2T45DP-Q100H_NEXPERIA</t>
+  </si>
+  <si>
+    <t>客户指定采购</t>
+  </si>
+  <si>
+    <t>IC:DIODES_AP74700Q</t>
+  </si>
+  <si>
+    <t>产品</t>
+  </si>
+  <si>
+    <t>测试软件费</t>
+  </si>
+  <si>
+    <t>延锋科技前装车内1M</t>
+  </si>
+  <si>
+    <t>延锋科技-DMS-2M</t>
+  </si>
+  <si>
+    <t>梯度</t>
+  </si>
+  <si>
+    <t>BOM成本</t>
+  </si>
+  <si>
+    <t>生产成本</t>
+  </si>
+  <si>
+    <t>良损率、良损成本</t>
+  </si>
+  <si>
+    <t>运费</t>
+  </si>
+  <si>
+    <t>MOQ分摊成本</t>
+  </si>
+  <si>
+    <t>质量成本</t>
+  </si>
+  <si>
+    <t>分摊成本</t>
+  </si>
+  <si>
+    <t>总成本</t>
+  </si>
+  <si>
+    <t>SOP年成本</t>
+  </si>
+  <si>
+    <t>2664.9</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>日期：</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{{Date}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{{RecordNumber}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>版本:{{Versions}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>直接客户名称：{{DirectCustomerName}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -108,124 +285,70 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>{{ForSale}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PaymentMethod}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>{{ProjectCycle}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{{ForSale}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{{modeOfTrade}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{{PaymentMethod}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{{ExchangeRate}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>版本:{{Versions}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>年份</t>
+    <t>{{Sop.Year}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Sop.Motion}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Sop.AnnualDeclineRate}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Sop.AnnualRebateRequirements}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Sop.OneTimeDiscountRate}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Sop.CommissionRate}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{Parts.PartsName}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{{Parts.Model}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{{Parts.PartsName}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Sop.Year}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Sop.Motion}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{{Parts.Type}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>走量(pcs)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>年度佣金比例(%)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Sop.CommissionRate}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOP 5年走量信息：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Sop.AnnualDeclineRate}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Sop.AnnualRebateRequirements}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Sop.OneTimeDiscountRate}}</t>
+    <t>{{Parts.Remark}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{{Parts.SolutionName}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{Parts.Remark}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NRE费用信息：</t>
-  </si>
-  <si>
-    <t>手板件费</t>
-  </si>
-  <si>
-    <t>模具费</t>
-  </si>
-  <si>
-    <t>生产设备费</t>
-  </si>
-  <si>
-    <t>工装费</t>
-  </si>
-  <si>
-    <t>治具费</t>
-  </si>
-  <si>
-    <t>检具费</t>
-  </si>
-  <si>
-    <t>实验费</t>
-  </si>
-  <si>
-    <t>测试软件费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>差旅费</t>
-  </si>
-  <si>
-    <t>其他费用</t>
-  </si>
-  <si>
-    <t>产品</t>
+  </si>
+  <si>
+    <t>{{NRE.SolutionName}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -269,65 +392,59 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{{NRE.SolutionName}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本单价信息</t>
+    <t>{{PriceCost.Gradient}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.BomSop}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.ScSop}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.Scfull}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.LsSop}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.Lsfull}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.YfSop}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.Yffull}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.Qufull}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.FtSop}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.Ftfull}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{PriceCost.AllSop}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>{{PriceCost.SolutionName}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>梯度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOP年成本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>全生命周期成本</t>
-  </si>
-  <si>
-    <t>BOM成本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产成本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>良损率、良损成本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>运费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOQ分摊成本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>质量成本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分摊成本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>总成本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{PriceCost.Gradient}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{PriceCost.BomSop}}</t>
+    <t>{{PriceCost.Allfull}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -335,30 +452,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{{PriceCost.ScSop}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{PriceCost.Scfull}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{PriceCost.LsSop}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{PriceCost.Lsfull}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{PriceCost.YfSop}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{PriceCost.Yffull}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{{PriceCost.MoqSop}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -368,26 +461,6 @@
   </si>
   <si>
     <t>{{PriceCost.QuSop}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{PriceCost.Qufull}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{PriceCost.FtSop}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{PriceCost.Ftfull}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{PriceCost.AllSop}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{PriceCost.Allfull}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -395,12 +468,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="\$#,##0.00;\-\$#,##0.00"/>
     <numFmt numFmtId="177" formatCode="[$-409]d/mmm;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +557,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -498,7 +580,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -782,8 +864,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,8 +926,11 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,34 +1076,99 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -986,19 +1186,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1007,48 +1210,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 4" xfId="2"/>
     <cellStyle name="常规 7" xfId="3"/>
+    <cellStyle name="千位分隔" xfId="4" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1075,6 +1318,18 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1095,7 +1350,7 @@
         <xdr:cNvPr id="2" name="Line 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1152,7 +1407,7 @@
                   <a14:compatExt spid="_x0000_s2072"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1238,7 +1493,7 @@
                   <a14:compatExt spid="_x0000_s2073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1324,7 +1579,7 @@
                   <a14:compatExt spid="_x0000_s2074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1405,7 +1660,7 @@
         <xdr:cNvPr id="13" name="图片 12" descr="C:\Users\fbchen\AppData\Roaming\Foxmail7\Temp-6912-20210104080636\Attach\附件2-浙江舜宇智领技术有限公司logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1428,6 +1683,374 @@
         <a:xfrm>
           <a:off x="190500" y="171450"/>
           <a:ext cx="2501900" cy="284480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31748</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Line 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="190498" y="508000"/>
+          <a:ext cx="23939502" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150" cmpd="thinThick">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                  <a:ea typeface="宋体"/>
+                </a:rPr>
+                <a:t>密1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>581025</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3074" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3074"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                  <a:ea typeface="宋体"/>
+                </a:rPr>
+                <a:t>密2</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>276225</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3075" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3075"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                  <a:ea typeface="宋体"/>
+                </a:rPr>
+                <a:t>一般</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2403555</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>113030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="C:\Users\fbchen\AppData\Roaming\Foxmail7\Temp-6912-20210104080636\Attach\附件2-浙江舜宇智领技术有限公司logo.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="177800" y="171450"/>
+          <a:ext cx="2378075" cy="284480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1733,10 +2356,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:T40"/>
+  <dimension ref="B1:T58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1744,11 +2367,10 @@
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="7" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="14.75" customWidth="1"/>
     <col min="10" max="10" width="10.75" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
@@ -1759,11 +2381,11 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="F1" s="23" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G1" s="23"/>
       <c r="H1" s="21" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
@@ -1785,63 +2407,63 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="F3" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="65"/>
+        <v>18</v>
+      </c>
+      <c r="J3" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="88"/>
     </row>
     <row r="4" spans="2:11" ht="36" customHeight="1" thickBot="1">
-      <c r="B4" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
+      <c r="B4" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
     </row>
     <row r="5" spans="2:11" ht="21" customHeight="1" thickTop="1">
-      <c r="B5" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="72"/>
+      <c r="B5" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="93"/>
     </row>
     <row r="6" spans="2:11" ht="21" customHeight="1">
-      <c r="B6" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="72"/>
+      <c r="B6" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="93"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="4"/>
@@ -1856,13 +2478,13 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
+        <v>23</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
       <c r="F8" s="43"/>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
@@ -1881,21 +2503,21 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
+        <v>25</v>
+      </c>
+      <c r="C10" s="95">
+        <v>2031</v>
+      </c>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
       <c r="G10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="95">
         <v>2</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="68"/>
+      <c r="J10" s="95"/>
       <c r="K10" s="33"/>
     </row>
     <row r="11" spans="2:11">
@@ -1906,27 +2528,27 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
+        <v>27</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
       <c r="G12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="76"/>
+        <v>29</v>
+      </c>
+      <c r="I12" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="96"/>
       <c r="K12" s="8"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="4"/>
       <c r="C13" s="9"/>
-      <c r="G13" s="73" t="s">
-        <v>6</v>
+      <c r="G13" s="97" t="s">
+        <v>31</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="28"/>
@@ -1934,18 +2556,18 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="76"/>
+        <v>32</v>
+      </c>
+      <c r="C14" s="95">
+        <v>22</v>
+      </c>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="95">
+        <v>6.7</v>
+      </c>
+      <c r="I14" s="96"/>
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="2:11">
@@ -1959,7 +2581,7 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
@@ -1971,459 +2593,1006 @@
       <c r="J16" s="37"/>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="64" t="s">
+    <row r="17" spans="2:11">
+      <c r="B17" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="101" t="s">
         <v>34</v>
       </c>
+      <c r="D17" s="102"/>
+      <c r="E17" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="107" t="s">
+        <v>38</v>
+      </c>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="2:20">
-      <c r="B18" s="78"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="64"/>
+    <row r="18" spans="2:11">
+      <c r="B18" s="100"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="107"/>
       <c r="I18" s="9"/>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:11">
       <c r="B19" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="42" t="s">
-        <v>35</v>
+      <c r="C19" s="107">
+        <v>3676.96</v>
+      </c>
+      <c r="D19" s="108"/>
+      <c r="E19" s="42">
+        <v>0</v>
+      </c>
+      <c r="F19" s="39">
+        <v>1</v>
+      </c>
+      <c r="G19" s="41">
+        <v>1</v>
+      </c>
+      <c r="H19" s="42">
+        <v>2</v>
       </c>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="2:20" ht="12.75" customHeight="1">
-      <c r="B20" s="11"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+    <row r="20" spans="2:11">
+      <c r="B20" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="107">
+        <v>3676.96</v>
+      </c>
+      <c r="D20" s="108"/>
+      <c r="E20" s="42">
+        <v>2</v>
+      </c>
+      <c r="F20" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="G20" s="41">
+        <v>0</v>
+      </c>
+      <c r="H20" s="42">
+        <v>2</v>
+      </c>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="2:20">
-      <c r="B21" s="19"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="H21" s="9"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="2:20">
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="H22" s="9"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="2:20">
-      <c r="B23" s="4"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="2:20">
-      <c r="B24" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="63" t="s">
+    <row r="21" spans="2:11">
+      <c r="B21" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="55"/>
-    </row>
-    <row r="25" spans="2:20">
-      <c r="D25" s="9"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
+      <c r="C21" s="107">
+        <v>4110.12</v>
+      </c>
+      <c r="D21" s="108"/>
+      <c r="E21" s="42">
+        <v>1</v>
+      </c>
+      <c r="F21" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="G21" s="41">
+        <v>1</v>
+      </c>
+      <c r="H21" s="42">
+        <v>2</v>
+      </c>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="107">
+        <v>4110.12</v>
+      </c>
+      <c r="D22" s="108"/>
+      <c r="E22" s="42">
+        <v>1</v>
+      </c>
+      <c r="F22" s="39">
+        <v>1</v>
+      </c>
+      <c r="G22" s="41">
+        <v>0</v>
+      </c>
+      <c r="H22" s="42">
+        <v>2</v>
+      </c>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B23" s="11"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="19"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="H24" s="9"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="H25" s="9"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:11">
       <c r="B26" s="4"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49"/>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="2:20">
-      <c r="B27" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="9" t="s">
+    <row r="27" spans="2:11">
+      <c r="B27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="109" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="109"/>
+      <c r="E27" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="109"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="112"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="109"/>
+      <c r="E28" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="109"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="112"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="109"/>
+      <c r="E29" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="109"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="112"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="109"/>
+      <c r="E30" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F30" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="109"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="112"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="109"/>
+      <c r="E31" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="109"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="112"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="109" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="109"/>
+      <c r="E32" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="109"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="112"/>
+    </row>
+    <row r="33" spans="2:20">
+      <c r="B33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="D33" s="109"/>
+      <c r="E33" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="79" t="s">
+      <c r="F33" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="79" t="s">
+      <c r="G33" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="I27" s="51" t="s">
+      <c r="H33" s="109"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="112"/>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="B34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="109"/>
+      <c r="E34" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="109"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="112"/>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="B35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="109"/>
+      <c r="E35" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="109"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="112"/>
+    </row>
+    <row r="36" spans="2:20">
+      <c r="B36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="80" t="s">
+      <c r="D36" s="109"/>
+      <c r="E36" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="L27" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20">
-      <c r="C28" s="50" t="s">
+      <c r="G36" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="109"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="112"/>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="109"/>
+      <c r="E37" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="109"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="112"/>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="109" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="109"/>
+      <c r="E38" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="109"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="112"/>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="D39" s="9"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="B40" s="4"/>
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="B41" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="L41" t="s">
+        <v>10</v>
+      </c>
+      <c r="M41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="C42" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="52">
+        <v>254000</v>
+      </c>
+      <c r="E42" s="52">
+        <v>160884</v>
+      </c>
+      <c r="F42" s="52">
+        <v>23599200</v>
+      </c>
+      <c r="G42" s="52">
+        <v>2653104</v>
+      </c>
+      <c r="H42" s="52">
+        <v>3895320</v>
+      </c>
+      <c r="I42" s="52">
+        <v>0</v>
+      </c>
+      <c r="J42" s="52">
+        <v>1092592</v>
+      </c>
+      <c r="K42" s="52">
+        <v>1173600</v>
+      </c>
+      <c r="L42" s="52">
+        <v>45048</v>
+      </c>
+      <c r="M42" s="52">
+        <v>3700000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20">
+      <c r="C43" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="52">
+        <v>548730</v>
+      </c>
+      <c r="E43" s="52">
+        <v>672864</v>
+      </c>
+      <c r="F43" s="52">
+        <v>23572000</v>
+      </c>
+      <c r="G43" s="52">
+        <v>1169520</v>
+      </c>
+      <c r="H43" s="52">
+        <v>963680</v>
+      </c>
+      <c r="I43" s="52">
+        <v>0</v>
+      </c>
+      <c r="J43" s="52">
+        <v>20345369</v>
+      </c>
+      <c r="K43" s="52">
+        <v>651400</v>
+      </c>
+      <c r="L43" s="52">
+        <v>167976</v>
+      </c>
+      <c r="M43" s="52">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="2:20">
+      <c r="B45" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="I28" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="J28" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="K28" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="L28" s="52" t="s">
+      <c r="D45" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="K45" s="116"/>
+      <c r="L45" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="M45" s="114"/>
+      <c r="N45" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="O45" s="114"/>
+      <c r="P45" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q45" s="116"/>
+      <c r="R45" s="114" t="s">
+        <v>72</v>
+      </c>
+      <c r="S45" s="114"/>
+      <c r="T45" s="60"/>
+    </row>
+    <row r="46" spans="2:20">
+      <c r="B46" s="114"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="M46" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="N46" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="O46" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="P46" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q46" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="R46" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="S46" s="58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20">
+      <c r="B47" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="M28" s="52" t="s">
+      <c r="C47" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="52">
+        <v>370.34</v>
+      </c>
+      <c r="E47" s="52">
+        <v>368.58</v>
+      </c>
+      <c r="F47" s="52">
+        <v>94.95</v>
+      </c>
+      <c r="G47" s="52">
+        <v>99.92</v>
+      </c>
+      <c r="H47" s="52">
+        <v>16.72</v>
+      </c>
+      <c r="I47" s="52">
+        <v>9.42</v>
+      </c>
+      <c r="J47" s="52">
+        <v>0.23</v>
+      </c>
+      <c r="K47" s="52">
+        <v>0.23</v>
+      </c>
+      <c r="L47" s="52">
+        <v>0.01</v>
+      </c>
+      <c r="M47" s="52">
+        <v>0.06</v>
+      </c>
+      <c r="N47" s="52">
+        <v>2.79</v>
+      </c>
+      <c r="O47" s="52">
+        <v>1.84</v>
+      </c>
+      <c r="P47" s="52">
+        <v>0.81</v>
+      </c>
+      <c r="Q47" s="52">
+        <v>1.24</v>
+      </c>
+      <c r="R47" s="52">
+        <v>485.85</v>
+      </c>
+      <c r="S47" s="52">
+        <v>481.28</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20">
+      <c r="B48" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="52">
+        <v>364.06</v>
+      </c>
+      <c r="E48" s="52">
+        <v>364.33</v>
+      </c>
+      <c r="F48" s="52">
+        <v>106.05</v>
+      </c>
+      <c r="G48" s="52">
+        <v>106.3</v>
+      </c>
+      <c r="H48" s="52">
+        <v>15.8</v>
+      </c>
+      <c r="I48" s="52">
+        <v>9.31</v>
+      </c>
+      <c r="J48" s="52">
+        <v>0.22</v>
+      </c>
+      <c r="K48" s="52">
+        <v>0.22</v>
+      </c>
+      <c r="L48" s="52">
+        <v>0.01</v>
+      </c>
+      <c r="M48" s="52">
+        <v>0</v>
+      </c>
+      <c r="N48" s="52">
+        <v>2.64</v>
+      </c>
+      <c r="O48" s="52">
+        <v>1.82</v>
+      </c>
+      <c r="P48" s="52">
+        <v>0.81</v>
+      </c>
+      <c r="Q48" s="52">
+        <v>1.24</v>
+      </c>
+      <c r="R48" s="52">
+        <v>489.59</v>
+      </c>
+      <c r="S48" s="52">
+        <v>483.22</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19">
+      <c r="B49" s="52" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="29" spans="2:20">
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="2:20">
-      <c r="B30" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="K30" s="84"/>
-      <c r="L30" s="82" t="s">
+      <c r="C49" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82" t="s">
+      <c r="D49" s="52">
+        <v>423.36</v>
+      </c>
+      <c r="E49" s="52">
+        <v>425.7</v>
+      </c>
+      <c r="F49" s="52">
+        <v>72.150000000000006</v>
+      </c>
+      <c r="G49" s="52">
+        <v>70.89</v>
+      </c>
+      <c r="H49" s="52">
+        <v>22.66</v>
+      </c>
+      <c r="I49" s="52">
+        <v>12.9</v>
+      </c>
+      <c r="J49" s="52">
+        <v>0.22</v>
+      </c>
+      <c r="K49" s="52">
+        <v>0.22</v>
+      </c>
+      <c r="L49" s="52">
+        <v>0.02</v>
+      </c>
+      <c r="M49" s="52">
+        <v>0.06</v>
+      </c>
+      <c r="N49" s="52">
+        <v>3.44</v>
+      </c>
+      <c r="O49" s="52">
+        <v>2.13</v>
+      </c>
+      <c r="P49" s="52">
+        <v>7.79</v>
+      </c>
+      <c r="Q49" s="52">
+        <v>6.18</v>
+      </c>
+      <c r="R49" s="52">
+        <v>529.64</v>
+      </c>
+      <c r="S49" s="52">
+        <v>518.09</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19">
+      <c r="B50" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="S30" s="82"/>
-      <c r="T30" s="86"/>
-    </row>
-    <row r="31" spans="2:20">
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="J31" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="K31" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="L31" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="M31" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="N31" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="O31" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="P31" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q31" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="R31" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="S31" s="83" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20">
-      <c r="B32" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="H32" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="I32" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="J32" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="K32" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="L32" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="M32" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="N32" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="O32" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="P32" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q32" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="R32" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="S32" s="52" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="27"/>
-      <c r="D34" s="9"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="K34" s="8"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="4"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="9"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="8"/>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="8"/>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="4"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="8"/>
-    </row>
-    <row r="38" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B38" s="4"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="2:11" ht="15" thickTop="1" thickBot="1">
-      <c r="B39" s="6"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="2:11" ht="14.25" thickTop="1">
-      <c r="B40" s="3"/>
-      <c r="I40" s="10"/>
+      <c r="D50" s="52">
+        <v>423.9</v>
+      </c>
+      <c r="E50" s="52">
+        <v>420.58</v>
+      </c>
+      <c r="F50" s="52">
+        <v>72.44</v>
+      </c>
+      <c r="G50" s="52">
+        <v>70.680000000000007</v>
+      </c>
+      <c r="H50" s="52">
+        <v>24.27</v>
+      </c>
+      <c r="I50" s="52">
+        <v>12.79</v>
+      </c>
+      <c r="J50" s="52">
+        <v>0.22</v>
+      </c>
+      <c r="K50" s="52">
+        <v>0.22</v>
+      </c>
+      <c r="L50" s="52">
+        <v>0.02</v>
+      </c>
+      <c r="M50" s="52">
+        <v>0.01</v>
+      </c>
+      <c r="N50" s="52">
+        <v>3.71</v>
+      </c>
+      <c r="O50" s="52">
+        <v>2.1</v>
+      </c>
+      <c r="P50" s="52">
+        <v>7.79</v>
+      </c>
+      <c r="Q50" s="52">
+        <v>6.18</v>
+      </c>
+      <c r="R50" s="52">
+        <v>532.35</v>
+      </c>
+      <c r="S50" s="52">
+        <v>512.55999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19">
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+    </row>
+    <row r="52" spans="2:19">
+      <c r="B52" s="27"/>
+      <c r="D52" s="9"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="K52" s="8"/>
+    </row>
+    <row r="53" spans="2:19">
+      <c r="B53" s="4"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="9"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="8"/>
+    </row>
+    <row r="54" spans="2:19">
+      <c r="B54" s="13"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="8"/>
+    </row>
+    <row r="55" spans="2:19">
+      <c r="B55" s="4"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="8"/>
+    </row>
+    <row r="56" spans="2:19" ht="14.25" thickBot="1">
+      <c r="B56" s="4"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="12"/>
+    </row>
+    <row r="57" spans="2:19" ht="15" thickTop="1" thickBot="1">
+      <c r="B57" s="6"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="9"/>
+    </row>
+    <row r="58" spans="2:19" ht="14.25" thickTop="1">
+      <c r="B58" s="3"/>
+      <c r="I58" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="C21:E21"/>
+  <mergeCells count="69">
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="H17:H18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="H14:I14"/>
     <mergeCell ref="C17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2503,4 +3672,1076 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:T38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="2" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="7" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="13.5" customHeight="1">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
+    </row>
+    <row r="2" spans="2:19" ht="13.5" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" spans="2:19" ht="15" customHeight="1">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="F3" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="88"/>
+    </row>
+    <row r="4" spans="2:19" ht="36" customHeight="1" thickBot="1">
+      <c r="B4" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+    </row>
+    <row r="5" spans="2:19" ht="21" customHeight="1" thickTop="1">
+      <c r="B5" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="61"/>
+    </row>
+    <row r="6" spans="2:19" ht="21" customHeight="1">
+      <c r="B6" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7" s="4"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="B8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="B9" s="4"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="B10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="64"/>
+      <c r="I10" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="95"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="B11" s="4"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="B12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="62"/>
+      <c r="I12" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="96"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="B13" s="4"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="119" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="48"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="2:19">
+      <c r="B14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="B15" s="11"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="102"/>
+      <c r="E17" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="100"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="108"/>
+      <c r="E19" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="2:20" ht="12.75" customHeight="1">
+      <c r="B20" s="11"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="19"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" s="19"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="4"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="8"/>
+    </row>
+    <row r="24" spans="2:20" ht="31.5" customHeight="1">
+      <c r="B24" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="109"/>
+      <c r="E24" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="109" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="109"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="8"/>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="4"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="8"/>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="4"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="8"/>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="8"/>
+    </row>
+    <row r="28" spans="2:20" ht="21.95" customHeight="1">
+      <c r="B28" s="4"/>
+      <c r="C28" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="L28" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="M28" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="8"/>
+    </row>
+    <row r="29" spans="2:20" ht="28.5" customHeight="1">
+      <c r="B29" s="4"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="8"/>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" s="123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="121" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="121" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="121"/>
+      <c r="H30" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="121"/>
+      <c r="J30" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" s="121"/>
+      <c r="L30" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="M30" s="121"/>
+      <c r="N30" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="O30" s="121"/>
+      <c r="P30" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q30" s="121"/>
+      <c r="R30" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="S30" s="122"/>
+      <c r="T30" s="60"/>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" s="123"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="M31" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="O31" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q31" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="R31" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="S31" s="84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" ht="21.95" customHeight="1">
+      <c r="B32" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="I32" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="J32" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K32" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="L32" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="M32" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="N32" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="O32" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="P32" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q32" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="R32" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="S32" s="85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19">
+      <c r="B33" s="27"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="8"/>
+    </row>
+    <row r="34" spans="2:19">
+      <c r="B34" s="4"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="8"/>
+    </row>
+    <row r="35" spans="2:19">
+      <c r="B35" s="13"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="8"/>
+    </row>
+    <row r="36" spans="2:19">
+      <c r="B36" s="4"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="8"/>
+    </row>
+    <row r="37" spans="2:19" ht="14.25" thickBot="1">
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="12"/>
+    </row>
+    <row r="38" spans="2:19" ht="14.25" thickTop="1">
+      <c r="B38" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="I10:J10"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3073" r:id="rId4" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3074" r:id="rId5" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>400050</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3075" r:id="rId6" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
 </file>
--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/新成本信息表模板.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/新成本信息表模板.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
   <si>
     <t>密级：</t>
   </si>
@@ -357,6 +357,26 @@
   </si>
   <si>
     <t>{{PriceCost.QuSop}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心组件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -789,7 +809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -953,58 +973,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1013,11 +1021,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1072,7 +1095,7 @@
         <xdr:cNvPr id="2" name="Line 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1129,7 +1152,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1215,7 +1238,7 @@
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1301,7 +1324,7 @@
                   <a14:compatExt spid="_x0000_s3075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A080000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1382,7 +1405,7 @@
         <xdr:cNvPr id="6" name="图片 5" descr="C:\Users\fbchen\AppData\Roaming\Foxmail7\Temp-6912-20210104080636\Attach\附件2-浙江舜宇智领技术有限公司logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1713,7 +1736,7 @@
   <dimension ref="B1:T38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M17" sqref="M16:M17"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1780,24 +1803,24 @@
       <c r="I3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="70"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="2:19" ht="36" customHeight="1" thickBot="1">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="2:19" ht="21" customHeight="1" thickTop="1">
       <c r="B5" s="51" t="s">
@@ -1867,11 +1890,11 @@
       <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="27"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
@@ -1911,20 +1934,20 @@
       <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="31"/>
       <c r="G10" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="33"/>
-      <c r="I10" s="58" t="s">
+      <c r="I10" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="58"/>
+      <c r="J10" s="61"/>
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
@@ -1959,20 +1982,20 @@
       <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
       <c r="F12" s="31"/>
       <c r="G12" s="25" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="31"/>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="69"/>
+      <c r="J12" s="62"/>
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
       <c r="M12" s="31"/>
@@ -1989,7 +2012,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
-      <c r="G13" s="75" t="s">
+      <c r="G13" s="71" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="25"/>
@@ -2009,13 +2032,13 @@
       <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
       <c r="F14" s="31"/>
-      <c r="G14" s="76"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="31"/>
       <c r="I14" s="26" t="s">
         <v>54</v>
@@ -2074,23 +2097,23 @@
       <c r="S16" s="7"/>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="67" t="s">
+      <c r="D17" s="66"/>
+      <c r="E17" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="67" t="s">
+      <c r="F17" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="63" t="s">
+      <c r="G17" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="59" t="s">
+      <c r="H17" s="73" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="31"/>
@@ -2106,13 +2129,13 @@
       <c r="S17" s="7"/>
     </row>
     <row r="18" spans="2:20">
-      <c r="B18" s="62"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="59"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="73"/>
       <c r="I18" s="25"/>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
@@ -2129,10 +2152,10 @@
       <c r="B19" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="60"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="22" t="s">
         <v>57</v>
       </c>
@@ -2179,9 +2202,9 @@
     </row>
     <row r="21" spans="2:20">
       <c r="B21" s="11"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
       <c r="H21" s="25"/>
@@ -2218,12 +2241,22 @@
       <c r="S22" s="7"/>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="4"/>
-      <c r="C23" s="31"/>
+      <c r="B23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>96</v>
+      </c>
       <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+      <c r="E23" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="79" t="s">
+        <v>99</v>
+      </c>
       <c r="H23" s="25"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
@@ -2241,20 +2274,20 @@
       <c r="B24" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="57"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="24" t="s">
         <v>62</v>
       </c>
       <c r="F24" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="57" t="s">
+      <c r="G24" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="57"/>
+      <c r="H24" s="75"/>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
       <c r="K24" s="31"/>
@@ -2414,49 +2447,49 @@
       <c r="S29" s="7"/>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="72" t="s">
+      <c r="D30" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72" t="s">
+      <c r="E30" s="76"/>
+      <c r="F30" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72" t="s">
+      <c r="G30" s="76"/>
+      <c r="H30" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72" t="s">
+      <c r="I30" s="76"/>
+      <c r="J30" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72" t="s">
+      <c r="K30" s="76"/>
+      <c r="L30" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72" t="s">
+      <c r="M30" s="76"/>
+      <c r="N30" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72" t="s">
+      <c r="O30" s="76"/>
+      <c r="P30" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72" t="s">
+      <c r="Q30" s="76"/>
+      <c r="R30" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="S30" s="73"/>
+      <c r="S30" s="77"/>
       <c r="T30" s="29"/>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="74"/>
-      <c r="C31" s="72"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="45" t="s">
         <v>41</v>
       </c>
@@ -2667,16 +2700,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="I12:J12"/>
@@ -2684,18 +2719,16 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
